--- a/output/Allocation Rule/tri_facilities/allocation_nearby_tri_facilities.xlsx
+++ b/output/Allocation Rule/tri_facilities/allocation_nearby_tri_facilities.xlsx
@@ -32,64 +32,64 @@
     <t xml:space="preserve">Neighboring TRI Facilities within a 10-Mile Radius</t>
   </si>
   <si>
+    <t xml:space="preserve">Chemours Chambers Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepwater, NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Dorado, AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARKEMA, INC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvert City, KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honeywell International - Geismar Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geismar, LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours - Corpus Christi Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregory, TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexichem Fluor Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Gabriel, LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iofina Chemical Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covington, KY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chemours Louisville Works</t>
   </si>
   <si>
     <t xml:space="preserve">Louisville, KY</t>
   </si>
   <si>
-    <t xml:space="preserve">ARKEMA, INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvert City, KY</t>
+    <t xml:space="preserve">Daikin America Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur, AL</t>
   </si>
   <si>
     <t xml:space="preserve">Islechem LLC</t>
   </si>
   <si>
     <t xml:space="preserve">Grand Island, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemours - Corpus Christi Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregory, TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iofina Chemical Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covington, KY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemours Chambers Works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deepwater, NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemours El Dorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Dorado, AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honeywell International - Geismar Complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geismar, LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexichem Fluor Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Gabriel, LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daikin America Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decatur, AL</t>
   </si>
 </sst>
 </file>
@@ -449,16 +449,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>32</v>
-      </c>
-      <c r="F2" t="n">
-        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -469,16 +469,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +489,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -509,16 +509,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -549,16 +549,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -609,16 +609,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -629,16 +629,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
